--- a/list0.xlsx
+++ b/list0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cukel\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b1010bf65b6476ff/Documents/GitHub/Groceries/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFA108AB-B18E-48E2-A913-1FE147B09E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{AFA108AB-B18E-48E2-A913-1FE147B09E70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F9650244-9035-4847-BC96-ABBAFD7AFA7F}"/>
   <bookViews>
-    <workbookView xWindow="17805" yWindow="3675" windowWidth="21600" windowHeight="11385" xr2:uid="{70093C35-C0D8-49D1-A2B6-66FA37D23BC2}"/>
+    <workbookView xWindow="7200" yWindow="3675" windowWidth="21600" windowHeight="11385" xr2:uid="{70093C35-C0D8-49D1-A2B6-66FA37D23BC2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -320,7 +320,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -370,9 +370,9 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -696,8 +696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F607C812-738D-4519-990B-8C53E3FE663D}">
   <dimension ref="A1:I117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -804,7 +804,7 @@
         <v>19</v>
       </c>
       <c r="G6" s="3">
-        <f t="shared" ref="G6:G69" si="0">PRODUCT(D6,E6)</f>
+        <f t="shared" ref="G6:G60" si="0">PRODUCT(D6,E6)</f>
         <v>3.99</v>
       </c>
     </row>
@@ -1008,7 +1008,7 @@
         <v>35</v>
       </c>
       <c r="D18" s="2">
-        <v>1.79</v>
+        <v>0.1</v>
       </c>
       <c r="E18" s="6">
         <v>18</v>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="G18" s="3">
         <f t="shared" si="0"/>
-        <v>32.22</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1346,10 +1346,7 @@
       <c r="A38" t="s">
         <v>66</v>
       </c>
-      <c r="G38" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="G38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
